--- a/affine_2d_office_script/affine_2d_transformation.xlsx
+++ b/affine_2d_office_script/affine_2d_transformation.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wsponlinenam.sharepoint.com/sites/US-Southwest-Geomati/Shared Documents/Business Development/Marketing &amp; Presentations/2025/Presentations/250518 - NMDOT CIVIL3D CUSTOM COORDINATE SYSTEMS/Script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Farid\gitProjects\coordinate_transformations\affine_2d_office_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="8_{44BAA83B-2FD9-4AEE-8764-8AE964663791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FAF915-1150-43E2-9F0C-90F5F121561E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00EFBA-3F5A-4C69-BF11-98ABB883FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="23136" yWindow="480" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{CE33CA41-0F61-4C0E-ACEE-51F901476334}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CE33CA41-0F61-4C0E-ACEE-51F901476334}"/>
   </bookViews>
   <sheets>
     <sheet name="SOURCE" sheetId="2" r:id="rId1"/>
     <sheet name="TARGET" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
-    <sheet name="REPORT" sheetId="12" r:id="rId4"/>
+    <sheet name="REPORT" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>PID</t>
   </si>
@@ -90,12 +89,6 @@
   </si>
   <si>
     <t>Residuals</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>TARGET</t>
   </si>
 </sst>
 </file>
@@ -474,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE79E8-17FB-4EDE-9961-BDF5F54E5B40}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -508,7 +501,7 @@
         <v>644005.77599999995</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -519,7 +512,7 @@
         <v>650091.42859999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -528,72 +521,6 @@
       </c>
       <c r="C4">
         <v>657073.51450000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>491852.45169999998</v>
-      </c>
-      <c r="C5">
-        <v>662336.85049999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>486785.40950000001</v>
-      </c>
-      <c r="C6">
-        <v>666244.14009999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>485580.32770000002</v>
-      </c>
-      <c r="C7">
-        <v>675285.01509999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>484719.74040000001</v>
-      </c>
-      <c r="C8">
-        <v>682155.94460000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>483847.3137</v>
-      </c>
-      <c r="C9">
-        <v>689869.83680000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>482408.76429999998</v>
-      </c>
-      <c r="C10">
-        <v>696855.12690000003</v>
       </c>
     </row>
   </sheetData>
@@ -603,19 +530,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DB48F2-06E7-493A-969B-6E7032637325}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -637,7 +564,7 @@
         <v>643999.13080000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,7 +575,7 @@
         <v>650080.34389999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -657,72 +584,6 @@
       </c>
       <c r="C4">
         <v>657059.98529999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>491837.66460000002</v>
-      </c>
-      <c r="C5">
-        <v>662317.777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>486785.39399999997</v>
-      </c>
-      <c r="C6">
-        <v>666244.14809999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>485614.4166</v>
-      </c>
-      <c r="C7">
-        <v>675289.50360000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>484779.74780000001</v>
-      </c>
-      <c r="C8">
-        <v>682163.62970000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>483936.41859999998</v>
-      </c>
-      <c r="C9">
-        <v>689880.75730000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>482524.2231</v>
-      </c>
-      <c r="C10">
-        <v>696871.42290000001</v>
       </c>
     </row>
   </sheetData>
@@ -731,221 +592,168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86558A-4985-4C71-9234-28D68B1B6BD0}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C77EB3-7BC0-4E98-B2DD-6D40A82168F8}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1840.6385519466176</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99999291672147783</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-3.7714982338895864E-3</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-2509.0282761909184</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.7713401845838601E-3</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.99999256559775562</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>488591.52659999998</v>
-      </c>
-      <c r="C3">
-        <v>644005.77599999995</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>488507.63079999998</v>
-      </c>
-      <c r="G3">
-        <v>643999.13080000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C11" s="2">
+        <v>1.1641532182693479E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>489757.21549999999</v>
-      </c>
-      <c r="C4">
-        <v>650091.42859999998</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>489696.26209999999</v>
-      </c>
-      <c r="G4">
-        <v>650080.34389999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B12" s="2">
+        <v>1.1641532182693479E-10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-2.9103830456733704E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>490392.25329999998</v>
-      </c>
-      <c r="C5">
-        <v>657073.51450000005</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>490357.62699999998</v>
-      </c>
-      <c r="G5">
-        <v>657059.98529999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>491852.45169999998</v>
-      </c>
-      <c r="C6">
-        <v>662336.85049999994</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>491837.66460000002</v>
-      </c>
-      <c r="G6">
-        <v>662317.777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>486785.40950000001</v>
-      </c>
-      <c r="C7">
-        <v>666244.14009999996</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>486785.39399999997</v>
-      </c>
-      <c r="G7">
-        <v>666244.14809999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>485580.32770000002</v>
-      </c>
-      <c r="C8">
-        <v>675285.01509999996</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>485614.4166</v>
-      </c>
-      <c r="G8">
-        <v>675289.50360000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>484719.74040000001</v>
-      </c>
-      <c r="C9">
-        <v>682155.94460000005</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>484779.74780000001</v>
-      </c>
-      <c r="G9">
-        <v>682163.62970000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>483847.3137</v>
-      </c>
-      <c r="C10">
-        <v>689869.83680000005</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>483936.41859999998</v>
-      </c>
-      <c r="G10">
-        <v>689880.75730000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>482408.76429999998</v>
-      </c>
-      <c r="C11">
-        <v>696855.12690000003</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>482524.2231</v>
-      </c>
-      <c r="G11">
-        <v>696871.42290000001</v>
+      <c r="B13" s="2">
+        <v>-1.1641532182693479E-10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.7462298274040222E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.1641532182693479E-10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.9103830456733704E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.7610214551289872E-11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.9402553637822467E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9.5052712239293153E-11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.0716258348026526E-10</v>
       </c>
     </row>
   </sheetData>
@@ -953,244 +761,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C77EB3-7BC0-4E98-B2DD-6D40A82168F8}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1840.5580243384463</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-3.771297073285496E-3</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.99999288910033302</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-2509.1556959650625</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.99999288264994235</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3.7712974425312463E-3</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-3.0418392270803452E-5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-3.6890909541398287E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3.5979668609797955E-5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7.2579656261950731E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-2.9129092581570148E-5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-2.4508510250598192E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.8641585484147072E-6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-1.1655734851956367E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3.8939062505960464E-5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3.5332050174474716E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-2.8350739739835266E-5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.2879636213183403E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4.3524894863367081E-5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-4.6759843826293945E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-2.8928276151418689E-5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4.4532178435474634E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-3.4831464290618896E-6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-1.0118703357875349E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4.3524894863367081E-5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.2579656261950731E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2.6735270188914405E-5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.8874078351590368E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3.0065120505285083E-5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3.6110947576687754E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TEUQH5JGYQCQPUNTB5AJZ3NEFDAWWD2O:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0tbXkuc2hhcmVwb2ludC5jb20vOnU6L2cvcGVyc29uYWwvZmFyaWRfamF2YWRuZWphZF93c3BfY29tL0VTYkVCUWZSc3c5QW5PMmtLTUZyRDA0QmpDaVB3NHFRc2VHYjcySGdkSHlVWHc"/>
+  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J6AXZAXLAAGOFGJBMP5QJXJQPII:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRWNDLVFYV0FCbkZNa0xIOWdtNllQUWdCZUMzSnFFaTVVVTljSWF1cmxaRjFOQQ"/>
+  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J2Z7CGCQDCKKJDKGNSR3WYRJ4AU:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRVZuNGpDZ01TbEpHb3paUjNiRVU4QlFCVDRMVFRrMHBPQ1JWWVRCcFdQaUxsZw"/>
+</scriptIds>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="37895e6c-f3d6-45ee-a8ff-42a37849a538" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="54f4b33b-dde5-4a56-ac7c-205d1bacdb7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B553C623CB2974AA8C658BDED632EC5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6bef46247400a413c1e4e422f5cd382">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54f4b33b-dde5-4a56-ac7c-205d1bacdb7c" xmlns:ns3="37895e6c-f3d6-45ee-a8ff-42a37849a538" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d4c06ea7ff22ef3adf393f394cd0ef0" ns2:_="" ns3:_="">
     <xsd:import namespace="54f4b33b-dde5-4a56-ac7c-205d1bacdb7c"/>
@@ -1403,34 +1002,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="37895e6c-f3d6-45ee-a8ff-42a37849a538" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="54f4b33b-dde5-4a56-ac7c-205d1bacdb7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TEUQH5JGYQCQPUNTB5AJZ3NEFDAWWD2O:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0tbXkuc2hhcmVwb2ludC5jb20vOnU6L2cvcGVyc29uYWwvZmFyaWRfamF2YWRuZWphZF93c3BfY29tL0VTYkVCUWZSc3c5QW5PMmtLTUZyRDA0QmpDaVB3NHFRc2VHYjcySGdkSHlVWHc"/>
-  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J6AXZAXLAAGOFGJBMP5QJXJQPII:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRWNDLVFYV0FCbkZNa0xIOWdtNllQUWdCZUMzSnFFaTVVVTljSWF1cmxaRjFOQQ"/>
-</scriptIds>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1352322F-05A0-41DC-BE90-8969A90EF1CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3A5B9A-314A-4158-9D69-64DAFA8CF122}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37895e6c-f3d6-45ee-a8ff-42a37849a538"/>
+    <ds:schemaRef ds:uri="54f4b33b-dde5-4a56-ac7c-205d1bacdb7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4439F3-FB71-4DD0-8297-953047485624}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D1C7AE-4511-4302-9DF5-ABB347F73FEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1449,34 +1049,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4439F3-FB71-4DD0-8297-953047485624}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3A5B9A-314A-4158-9D69-64DAFA8CF122}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37895e6c-f3d6-45ee-a8ff-42a37849a538"/>
-    <ds:schemaRef ds:uri="54f4b33b-dde5-4a56-ac7c-205d1bacdb7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1352322F-05A0-41DC-BE90-8969A90EF1CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59096ad9-8b60-446a-90b7-017dbb9421a3}" enabled="1" method="Standard" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" removed="0"/>

--- a/affine_2d_office_script/affine_2d_transformation.xlsx
+++ b/affine_2d_office_script/affine_2d_transformation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Farid\gitProjects\coordinate_transformations\affine_2d_office_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wsponlinenam-my.sharepoint.com/personal/farid_javadnejad_wsp_com/Documents/Documents/GitHub/coordinate_transformations/affine_2d_office_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00EFBA-3F5A-4C69-BF11-98ABB883FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FD00EFBA-3F5A-4C69-BF11-98ABB883FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F958226-31FB-4EB9-B776-19FDDF7CFE0F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CE33CA41-0F61-4C0E-ACEE-51F901476334}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>PID</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Residuals</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -127,12 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,166 +597,185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C77EB3-7BC0-4E98-B2DD-6D40A82168F8}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
         <v>1840.6385519466176</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.99999291672147783</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
         <v>-3.7714982338895864E-3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
         <v>-2509.0282761909184</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
         <v>3.7713401845838601E-3</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.99999256559775562</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>1.1641532182693479E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>1.1641532182693479E-10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>-2.9103830456733704E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>-1.1641532182693479E-10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>1.7462298274040222E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>1.1641532182693479E-10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>2.9103830456733704E-10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>7.7610214551289872E-11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>1.9402553637822467E-10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>9.5052712239293153E-11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>2.0716258348026526E-10</v>
       </c>
     </row>
@@ -762,11 +785,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TEUQH5JGYQCQPUNTB5AJZ3NEFDAWWD2O:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0tbXkuc2hhcmVwb2ludC5jb20vOnU6L2cvcGVyc29uYWwvZmFyaWRfamF2YWRuZWphZF93c3BfY29tL0VTYkVCUWZSc3c5QW5PMmtLTUZyRDA0QmpDaVB3NHFRc2VHYjcySGdkSHlVWHc"/>
-  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J6AXZAXLAAGOFGJBMP5QJXJQPII:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRWNDLVFYV0FCbkZNa0xIOWdtNllQUWdCZUMzSnFFaTVVVTljSWF1cmxaRjFOQQ"/>
-  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J2Z7CGCQDCKKJDKGNSR3WYRJ4AU:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRVZuNGpDZ01TbEpHb3paUjNiRVU4QlFCVDRMVFRrMHBPQ1JWWVRCcFdQaUxsZw"/>
-</scriptIds>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,12 +805,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01TEUQH5JGYQCQPUNTB5AJZ3NEFDAWWD2O:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0tbXkuc2hhcmVwb2ludC5jb20vOnU6L2cvcGVyc29uYWwvZmFyaWRfamF2YWRuZWphZF93c3BfY29tL0VTYkVCUWZSc3c5QW5PMmtLTUZyRDA0QmpDaVB3NHFRc2VHYjcySGdkSHlVWHc"/>
+  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J6AXZAXLAAGOFGJBMP5QJXJQPII:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRWNDLVFYV0FCbkZNa0xIOWdtNllQUWdCZUMzSnFFaTVVVTljSWF1cmxaRjFOQQ"/>
+  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!0U0Cf1YnG0CvWwc6jpbAWWxeiTfW8-5FqP9Co3hJpTg7s_RU5d1WSqx8IF0brNt8%2F016EEM6J2Z7CGCQDCKKJDKGNSR3WYRJ4AU:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly93c3BvbmxpbmVuYW0uc2hhcmVwb2ludC5jb20vOnU6L3MvVVMtU291dGh3ZXN0LUdlb21hdGkvRVZuNGpDZ01TbEpHb3paUjNiRVU4QlFCVDRMVFRrMHBPQ1JWWVRCcFdQaUxsZw"/>
+</scriptIds>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,10 +1026,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1352322F-05A0-41DC-BE90-8969A90EF1CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4439F3-FB71-4DD0-8297-953047485624}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
-    <ds:schemaRef ds:uri=""/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1023,9 +1045,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4439F3-FB71-4DD0-8297-953047485624}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1352322F-05A0-41DC-BE90-8969A90EF1CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
